--- a/biology/Botanique/Léon_Diguet/Léon_Diguet.xlsx
+++ b/biology/Botanique/Léon_Diguet/Léon_Diguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Diguet</t>
+          <t>Léon_Diguet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Diguet est un biologiste-explorateur français né au Havre le 25 juillet 1859 et décédé à Paris le 31 août 1926. Il est inhumé au cimetière du Père-Lachaise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Diguet</t>
+          <t>Léon_Diguet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Diguet fait ses études supérieures au Muséum national d'histoire naturelle et y obtient le titre d'ingénieur biologiste. Il a suivi au Muséum les cours de d'anthropologie d'Armand de Quatrefages et a rencontré Alphonse Milne-Edwards et Ernest Hamy, personnes qui auront une grande influence sur sa carrière[1].
-C'est en qualité d'ingénieur chimiste pour le compte de la Compagnie du Boléo, entreprise créée par la banque Mirabaud et Cie en 1885[2], qu'il effectuera son premier séjour au Mexique de 1889 à 1892, à Santa Rosalia (Basse-Californie du Sud). Son temps libre est consacré aux sciences naturelles et ses investigations portent sur la botanique, la géologie, la zoologie, l'archéologie, l'ethnologie, la géographie, l'hydrographie, ... il faut dire que la ville de Santa Rosalia à cette époque n'est qu'un îlot industriel perdu au milieu du désert où la vie est entièrement tournée vers l'exploitation du cuivre. Ajoutons que sur place la science et la recherche ont une place de choix puisque la Compagnie du Boléo a toujours su s'entourer de brillants ingénieurs français comme Édouard Cumenge, Édouard-Émile Saladin[3], Edmond Fuchs. Édouard Cumenge est d'ailleurs un correspondant du Muséum en 1895[4]. Léon Diguet envoie régulièrement des échantillons et des spécimens au Muséum national d'histoire naturelle. Cela lui vaudra à son retour en France, avec l'appui de ses relations Alphonse Milne-Edouards et Ernest Hamy, un poste de chargé de missions auprès du Ministère de l'Instruction publique et du Muséum national d'histoire naturelle[5]. Il effectuera six missions scientifiques au Mexique et deux en Amérique[6] qui donneront lieu à de nombreuses publications.  En hommage à Alphonse Milne-Edwards, Léon Diguet donnera le nom de Lepus Edwardsi à une espèce de lièvre de l'île Espíritu Santo[7].
-Léon Diguet reçoit en 1905 le prix Ducros-Aubert de la Société de géographie, en 1906 la médaille Geoffroy-Saint-Hilaire de la Société nationale d'acclimatation. Il est même nommé Chevalier de la Légion d'honneur en 1907 et sera la même année lauréat de l'Académie des inscriptions et belles-lettres[8].
-Malgré tous ces honneurs et l'incroyable diversité de ses champs d'étude comme en témoigne sa bibliographie, Léon Diguet sera oublié de la recherche dès son décès. Une explication à cela : l'explorateur-naturaliste est amateur de tout et perçu par les scientifiques comme spécialiste de rien, laissant même à d'autres le soin d'analyser les échantillons et les données qu'il ramenaient[9]. La 'réhabilitation' de Léon Diguet, amorcée timidement en 1952[10] se poursuit grâce aux travaux de Barbro Dahlgren de Jordan[11], Jean Meyer[12],[13], et porte sur l'ethnologie. Si l'on ajoute l'œuvre majeure de Léon Diguet, Les cactacées utiles du Mexique[14], il apparait que la botanique et l'ethnologie sont les deux domaines dans lesquels Léon Diguet fut un authentique spécialiste.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Diguet fait ses études supérieures au Muséum national d'histoire naturelle et y obtient le titre d'ingénieur biologiste. Il a suivi au Muséum les cours de d'anthropologie d'Armand de Quatrefages et a rencontré Alphonse Milne-Edwards et Ernest Hamy, personnes qui auront une grande influence sur sa carrière.
+C'est en qualité d'ingénieur chimiste pour le compte de la Compagnie du Boléo, entreprise créée par la banque Mirabaud et Cie en 1885, qu'il effectuera son premier séjour au Mexique de 1889 à 1892, à Santa Rosalia (Basse-Californie du Sud). Son temps libre est consacré aux sciences naturelles et ses investigations portent sur la botanique, la géologie, la zoologie, l'archéologie, l'ethnologie, la géographie, l'hydrographie, ... il faut dire que la ville de Santa Rosalia à cette époque n'est qu'un îlot industriel perdu au milieu du désert où la vie est entièrement tournée vers l'exploitation du cuivre. Ajoutons que sur place la science et la recherche ont une place de choix puisque la Compagnie du Boléo a toujours su s'entourer de brillants ingénieurs français comme Édouard Cumenge, Édouard-Émile Saladin, Edmond Fuchs. Édouard Cumenge est d'ailleurs un correspondant du Muséum en 1895. Léon Diguet envoie régulièrement des échantillons et des spécimens au Muséum national d'histoire naturelle. Cela lui vaudra à son retour en France, avec l'appui de ses relations Alphonse Milne-Edouards et Ernest Hamy, un poste de chargé de missions auprès du Ministère de l'Instruction publique et du Muséum national d'histoire naturelle. Il effectuera six missions scientifiques au Mexique et deux en Amérique qui donneront lieu à de nombreuses publications.  En hommage à Alphonse Milne-Edwards, Léon Diguet donnera le nom de Lepus Edwardsi à une espèce de lièvre de l'île Espíritu Santo.
+Léon Diguet reçoit en 1905 le prix Ducros-Aubert de la Société de géographie, en 1906 la médaille Geoffroy-Saint-Hilaire de la Société nationale d'acclimatation. Il est même nommé Chevalier de la Légion d'honneur en 1907 et sera la même année lauréat de l'Académie des inscriptions et belles-lettres.
+Malgré tous ces honneurs et l'incroyable diversité de ses champs d'étude comme en témoigne sa bibliographie, Léon Diguet sera oublié de la recherche dès son décès. Une explication à cela : l'explorateur-naturaliste est amateur de tout et perçu par les scientifiques comme spécialiste de rien, laissant même à d'autres le soin d'analyser les échantillons et les données qu'il ramenaient. La 'réhabilitation' de Léon Diguet, amorcée timidement en 1952 se poursuit grâce aux travaux de Barbro Dahlgren de Jordan, Jean Meyer et porte sur l'ethnologie. Si l'on ajoute l'œuvre majeure de Léon Diguet, Les cactacées utiles du Mexique, il apparait que la botanique et l'ethnologie sont les deux domaines dans lesquels Léon Diguet fut un authentique spécialiste.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Diguet</t>
+          <t>Léon_Diguet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Diguet</t>
+          <t>Léon_Diguet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Héritage et dédicaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces animales et végétales portant le nom de l'explorateur-naturaliste. Certaines ont été collectées par Léon Diguet lui-même.  
 </t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Diguet</t>
+          <t>Léon_Diguet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rémy Saint-Loup, Étude sur un nouveau type de Léporidé : Lepus Edwardsi (nov. sp.), t. 1, Bulletin du muséum d'histoire naturelle, 1895 (lire en ligne), p. 4-6
 Paul Rivet, Léon Diguet, t. 19, Journal de la Société des Américanistes, 1927 (lire en ligne), p. 379-381
